--- a/data/messages.xlsx
+++ b/data/messages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FD179F-534A-4F66-A399-FA3F520DAED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298B1743-52C0-4417-8348-58AC46728761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,28 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
-  <si>
-    <t>דרום</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>ent_reported</t>
-  </si>
-  <si>
-    <t>visit_date</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>visit_in_army</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
   <si>
     <t>attachments</t>
   </si>
@@ -87,16 +66,40 @@
     <t>שיחת_הורים</t>
   </si>
   <si>
-    <t>צדהים</t>
-  </si>
-  <si>
-    <t>חזק</t>
-  </si>
-  <si>
-    <t>יפה</t>
-  </si>
-  <si>
     <t>https://th01-s3.s3.eu-north-1.amazonaws.com/1e7f40ae5c9b4f329c413fc9f9056a51.jpg</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>MSG</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>PHONE</t>
+  </si>
+  <si>
+    <t>דרום אדום 2 אתה בא?</t>
+  </si>
+  <si>
+    <t>דרום אדום 1 אתה בא?</t>
   </si>
 </sst>
 </file>
@@ -193,7 +196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -218,6 +221,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -438,13 +444,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -452,53 +458,51 @@
     <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.90625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" style="1"/>
-    <col min="5" max="5" width="29.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6328125" style="1"/>
-    <col min="7" max="7" width="19.08984375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.08984375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6328125" style="1"/>
-    <col min="14" max="14" width="15.08984375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="22.1796875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.6328125" style="1"/>
-    <col min="18" max="18" width="17" style="1" customWidth="1"/>
-    <col min="19" max="19" width="19.08984375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.36328125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="22.1796875" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="12.6328125" style="1"/>
+    <col min="4" max="5" width="12.6328125" style="1"/>
+    <col min="6" max="6" width="19.08984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.08984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6328125" style="1"/>
+    <col min="13" max="13" width="15.08984375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.1796875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6328125" style="1"/>
+    <col min="17" max="17" width="17" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.08984375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.36328125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="22.1796875" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="12.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="I1" s="3"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -510,246 +514,221 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-    </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>523301800</v>
-      </c>
-      <c r="B2" s="6">
-        <v>523301801</v>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>544816491</v>
+      </c>
+      <c r="B2" s="5">
+        <v>523301800</v>
       </c>
       <c r="C2" s="7">
         <v>45293</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>523301800</v>
-      </c>
-      <c r="B3" s="6">
-        <v>523301802</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>544816492</v>
+      </c>
+      <c r="B3" s="5">
+        <v>523301800</v>
       </c>
       <c r="C3" s="7">
         <v>45414</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>523301800</v>
-      </c>
-      <c r="B4" s="6">
-        <v>523301803</v>
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>544816493</v>
+      </c>
+      <c r="B4" s="5">
+        <v>523301800</v>
       </c>
       <c r="C4" s="7">
         <v>45293</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>523301800</v>
-      </c>
-      <c r="B5" s="6">
-        <v>523301804</v>
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>544816494</v>
+      </c>
+      <c r="B5" s="5">
+        <v>523301800</v>
       </c>
       <c r="C5" s="7">
         <v>45414</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="F5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="H5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>523301800</v>
-      </c>
-      <c r="B6" s="6">
-        <v>523301805</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>544816495</v>
+      </c>
+      <c r="B6" s="5">
+        <v>523301800</v>
       </c>
       <c r="C6" s="7">
         <v>45294</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>523301800</v>
-      </c>
-      <c r="B7" s="6">
-        <v>523301806</v>
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>544816496</v>
+      </c>
+      <c r="B7" s="5">
+        <v>523301800</v>
       </c>
       <c r="C7" s="7">
         <v>45293</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>523301800</v>
-      </c>
-      <c r="B8" s="6">
-        <v>523301807</v>
+        <v>5</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>544816497</v>
+      </c>
+      <c r="B8" s="5">
+        <v>523301800</v>
       </c>
       <c r="C8" s="7">
         <v>45414</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>523301800</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>544816498</v>
       </c>
       <c r="B9" s="6">
-        <v>523301802</v>
+        <v>544816497</v>
       </c>
       <c r="C9" s="7">
         <v>45294</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>523301800</v>
       </c>
       <c r="B10" s="6">
-        <v>523301803</v>
+        <v>544816498</v>
       </c>
       <c r="C10" s="7">
         <v>45293</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>523301800</v>
       </c>
       <c r="B11" s="6">
-        <v>523301804</v>
+        <v>544816495</v>
       </c>
       <c r="C11" s="7">
         <v>45414</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -759,7 +738,7 @@
     <hyperlink ref="D10" r:id="rId3" display="eldad8797@gmail.com" xr:uid="{EDEBD4E1-B551-48B1-97A5-D389245EB8B5}"/>
     <hyperlink ref="D3" r:id="rId4" display="eldad8797@gmail.com" xr:uid="{A710D41C-737E-4619-9BB8-10E305133F0D}"/>
     <hyperlink ref="D2" r:id="rId5" display="eldad8797@gmail.com" xr:uid="{F296669E-423F-4CE6-B984-07F791D57A59}"/>
-    <hyperlink ref="G5" r:id="rId6" xr:uid="{27534653-348C-496C-9067-ADE2F000FE2C}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{27534653-348C-496C-9067-ADE2F000FE2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/data/messages.xlsx
+++ b/data/messages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298B1743-52C0-4417-8348-58AC46728761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A145EE-0283-4D1C-8446-486977BFD243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
   <si>
     <t>attachments</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>דרום אדום 1 אתה בא?</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>נכנסות</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יוצאות </t>
+  </si>
+  <si>
+    <t>טיוטה</t>
   </si>
 </sst>
 </file>
@@ -447,10 +459,10 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD25"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -500,9 +512,11 @@
         <v>1</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -537,6 +551,9 @@
       <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -557,6 +574,9 @@
       <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -577,6 +597,9 @@
       <c r="H4" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -603,6 +626,9 @@
       <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
@@ -623,6 +649,9 @@
       <c r="H6" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -643,6 +672,9 @@
       <c r="H7" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -666,6 +698,9 @@
       <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
@@ -689,6 +724,9 @@
       <c r="H9" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="I9" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -709,6 +747,9 @@
       <c r="H10" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="I10" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -728,6 +769,9 @@
       </c>
       <c r="H11" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data/messages.xlsx
+++ b/data/messages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A145EE-0283-4D1C-8446-486977BFD243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D5ACA6-4A21-4F11-B36D-0CC8D4585CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="27">
   <si>
     <t>attachments</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>טיוטה</t>
+  </si>
+  <si>
+    <t>היי</t>
+  </si>
+  <si>
+    <t>ביי</t>
+  </si>
+  <si>
+    <t>שלום</t>
   </si>
 </sst>
 </file>
@@ -456,13 +465,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2:I11"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -667,7 +676,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>17</v>
@@ -729,48 +738,322 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>523301800</v>
-      </c>
-      <c r="B10" s="6">
-        <v>544816498</v>
+      <c r="A10" s="6">
+        <v>544816491</v>
+      </c>
+      <c r="B10" s="5">
+        <v>523301800</v>
       </c>
       <c r="C10" s="7">
         <v>45293</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>5</v>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="G10" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H10" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>523301800</v>
-      </c>
-      <c r="B11" s="6">
-        <v>544816495</v>
+      <c r="A11" s="6">
+        <v>544816492</v>
+      </c>
+      <c r="B11" s="5">
+        <v>523301800</v>
       </c>
       <c r="C11" s="7">
         <v>45414</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>544816493</v>
+      </c>
+      <c r="B12" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="C12" s="7">
+        <v>45293</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>544816494</v>
+      </c>
+      <c r="B13" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="C13" s="7">
+        <v>45414</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>544816495</v>
+      </c>
+      <c r="B14" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="C14" s="7">
+        <v>45294</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>544816496</v>
+      </c>
+      <c r="B15" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="C15" s="7">
+        <v>45293</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>544816497</v>
+      </c>
+      <c r="B16" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="C16" s="7">
+        <v>45414</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>544816494</v>
+      </c>
+      <c r="B17" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="C17" s="7">
+        <v>45414</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>544816495</v>
+      </c>
+      <c r="B18" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="C18" s="7">
+        <v>45294</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>544816496</v>
+      </c>
+      <c r="B19" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="C19" s="7">
+        <v>45293</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>544816497</v>
+      </c>
+      <c r="B20" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="C20" s="7">
+        <v>45414</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="B21" s="6">
+        <v>544816498</v>
+      </c>
+      <c r="C21" s="7">
+        <v>45293</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="B22" s="6">
+        <v>544816495</v>
+      </c>
+      <c r="C22" s="7">
+        <v>45414</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -779,12 +1062,19 @@
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" display="eldad8797@gmail.com" xr:uid="{EBD37F19-695E-46A7-A129-651B32CF579A}"/>
     <hyperlink ref="D7" r:id="rId2" display="eldad8797@gmail.com" xr:uid="{8E692970-D9C2-4571-8AE8-38899E98D221}"/>
-    <hyperlink ref="D10" r:id="rId3" display="eldad8797@gmail.com" xr:uid="{EDEBD4E1-B551-48B1-97A5-D389245EB8B5}"/>
+    <hyperlink ref="D21" r:id="rId3" display="eldad8797@gmail.com" xr:uid="{EDEBD4E1-B551-48B1-97A5-D389245EB8B5}"/>
     <hyperlink ref="D3" r:id="rId4" display="eldad8797@gmail.com" xr:uid="{A710D41C-737E-4619-9BB8-10E305133F0D}"/>
     <hyperlink ref="D2" r:id="rId5" display="eldad8797@gmail.com" xr:uid="{F296669E-423F-4CE6-B984-07F791D57A59}"/>
     <hyperlink ref="F5" r:id="rId6" xr:uid="{27534653-348C-496C-9067-ADE2F000FE2C}"/>
+    <hyperlink ref="D12" r:id="rId7" display="eldad8797@gmail.com" xr:uid="{877078B7-DA96-4730-B1EB-251A635A6C4D}"/>
+    <hyperlink ref="D15" r:id="rId8" display="eldad8797@gmail.com" xr:uid="{0204ACF5-F16B-42FA-8689-580E82CF4F73}"/>
+    <hyperlink ref="D11" r:id="rId9" display="eldad8797@gmail.com" xr:uid="{00979182-00F1-43EC-950A-63205B4D5F59}"/>
+    <hyperlink ref="D10" r:id="rId10" display="eldad8797@gmail.com" xr:uid="{0EEC3235-045E-43B2-86CC-80DF48297B04}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{638CF378-4144-4C50-A466-E461BA9B3C8E}"/>
+    <hyperlink ref="D19" r:id="rId12" display="eldad8797@gmail.com" xr:uid="{4B73DF48-901B-4C58-B473-533F6ED084CC}"/>
+    <hyperlink ref="F17" r:id="rId13" xr:uid="{5F4EC340-DF67-4239-BD97-FA218B077A73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/data/messages.xlsx
+++ b/data/messages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D5ACA6-4A21-4F11-B36D-0CC8D4585CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FEC53D-1A66-401E-9018-C10011075EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,10 +468,10 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -540,7 +540,7 @@
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>544816491</v>
+        <v>544816494</v>
       </c>
       <c r="B2" s="5">
         <v>523301800</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>544816492</v>
+        <v>544816495</v>
       </c>
       <c r="B3" s="5">
         <v>523301800</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>544816493</v>
+        <v>544816496</v>
       </c>
       <c r="B4" s="5">
         <v>523301800</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>544816494</v>
+        <v>544816497</v>
       </c>
       <c r="B5" s="5">
         <v>523301800</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>544816495</v>
+        <v>544816498</v>
       </c>
       <c r="B6" s="5">
         <v>523301800</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>544816496</v>
+        <v>544816499</v>
       </c>
       <c r="B7" s="5">
         <v>523301800</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>544816497</v>
+        <v>544816500</v>
       </c>
       <c r="B8" s="5">
         <v>523301800</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>544816498</v>
+        <v>544816501</v>
       </c>
       <c r="B9" s="6">
         <v>544816497</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>544816491</v>
+        <v>544816502</v>
       </c>
       <c r="B10" s="5">
         <v>523301800</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>544816492</v>
+        <v>549247616</v>
       </c>
       <c r="B11" s="5">
         <v>523301800</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>544816493</v>
+        <v>544816494</v>
       </c>
       <c r="B12" s="5">
         <v>523301800</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>544816494</v>
+        <v>544816495</v>
       </c>
       <c r="B13" s="5">
         <v>523301800</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>544816495</v>
+        <v>544816496</v>
       </c>
       <c r="B14" s="5">
         <v>523301800</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>544816496</v>
+        <v>544816497</v>
       </c>
       <c r="B15" s="5">
         <v>523301800</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>544816497</v>
+        <v>544816498</v>
       </c>
       <c r="B16" s="5">
         <v>523301800</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>544816494</v>
+        <v>544816499</v>
       </c>
       <c r="B17" s="5">
         <v>523301800</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>544816495</v>
+        <v>544816500</v>
       </c>
       <c r="B18" s="5">
         <v>523301800</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>544816496</v>
+        <v>544816501</v>
       </c>
       <c r="B19" s="5">
         <v>523301800</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>544816497</v>
+        <v>544816502</v>
       </c>
       <c r="B20" s="5">
         <v>523301800</v>

--- a/data/messages.xlsx
+++ b/data/messages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FEC53D-1A66-401E-9018-C10011075EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F740131-6580-44A2-A7A6-08223C487E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="28">
   <si>
     <t>attachments</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>שלום</t>
+  </si>
+  <si>
+    <t>sed -i 's/postgresql:\/\/postgres:TH@localhost\/t_h/postgresql:\/\/thdb1:oenk76178@thdb1.cmveev2ncszs.eu-north-1.rds.amazonaws.com:5432\/thDB/' config.py</t>
   </si>
 </sst>
 </file>
@@ -468,16 +471,16 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21:A22"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.453125" style="1" customWidth="1"/>
     <col min="4" max="5" width="12.6328125" style="1"/>
     <col min="6" max="6" width="19.08984375" style="1" customWidth="1"/>
@@ -540,13 +543,13 @@
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>544816494</v>
+        <v>544816497</v>
       </c>
       <c r="B2" s="5">
         <v>523301800</v>
       </c>
       <c r="C2" s="7">
-        <v>45293</v>
+        <v>45406.204953703702</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
@@ -566,13 +569,13 @@
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>544816495</v>
+        <v>544816498</v>
       </c>
       <c r="B3" s="5">
         <v>523301800</v>
       </c>
       <c r="C3" s="7">
-        <v>45414</v>
+        <v>45346.204953703702</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
@@ -589,19 +592,19 @@
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>544816496</v>
+        <v>544816499</v>
       </c>
       <c r="B4" s="5">
         <v>523301800</v>
       </c>
       <c r="C4" s="7">
-        <v>45293</v>
+        <v>45346.180648148147</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>17</v>
@@ -612,13 +615,13 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>544816497</v>
+        <v>544816500</v>
       </c>
       <c r="B5" s="5">
         <v>523301800</v>
       </c>
       <c r="C5" s="7">
-        <v>45414</v>
+        <v>45346.204953703702</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
@@ -641,13 +644,13 @@
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>544816498</v>
+        <v>544816501</v>
       </c>
       <c r="B6" s="5">
         <v>523301800</v>
       </c>
       <c r="C6" s="7">
-        <v>45294</v>
+        <v>45347</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>7</v>
@@ -664,13 +667,13 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>544816499</v>
+        <v>544816502</v>
       </c>
       <c r="B7" s="5">
         <v>523301800</v>
       </c>
       <c r="C7" s="7">
-        <v>45293</v>
+        <v>45348</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>5</v>
@@ -687,13 +690,13 @@
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>544816500</v>
+        <v>544816504</v>
       </c>
       <c r="B8" s="5">
         <v>523301800</v>
       </c>
       <c r="C8" s="7">
-        <v>45414</v>
+        <v>45346.204953703702</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>6</v>
@@ -713,13 +716,13 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>544816501</v>
+        <v>544816505</v>
       </c>
       <c r="B9" s="6">
         <v>544816497</v>
       </c>
       <c r="C9" s="7">
-        <v>45294</v>
+        <v>45346.204953703702</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>7</v>
@@ -739,13 +742,13 @@
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>544816502</v>
+        <v>544816506</v>
       </c>
       <c r="B10" s="5">
         <v>523301800</v>
       </c>
       <c r="C10" s="7">
-        <v>45293</v>
+        <v>45406</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>7</v>
@@ -765,19 +768,19 @@
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>549247616</v>
+        <v>544816507</v>
       </c>
       <c r="B11" s="5">
         <v>523301800</v>
       </c>
       <c r="C11" s="7">
-        <v>45414</v>
+        <v>45406</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>16</v>
@@ -788,13 +791,13 @@
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>544816494</v>
+        <v>544816508</v>
       </c>
       <c r="B12" s="5">
         <v>523301800</v>
       </c>
       <c r="C12" s="7">
-        <v>45293</v>
+        <v>45346.204953703702</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>5</v>
@@ -811,13 +814,13 @@
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>544816495</v>
+        <v>544816498</v>
       </c>
       <c r="B13" s="5">
         <v>523301800</v>
       </c>
       <c r="C13" s="7">
-        <v>45414</v>
+        <v>45406</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>6</v>
@@ -840,13 +843,13 @@
     </row>
     <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>544816496</v>
+        <v>544816499</v>
       </c>
       <c r="B14" s="5">
         <v>523301800</v>
       </c>
       <c r="C14" s="7">
-        <v>45294</v>
+        <v>45406</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>7</v>
@@ -863,13 +866,13 @@
     </row>
     <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>544816497</v>
+        <v>544816500</v>
       </c>
       <c r="B15" s="5">
         <v>523301800</v>
       </c>
       <c r="C15" s="7">
-        <v>45293</v>
+        <v>45346.204953703702</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>5</v>
@@ -886,13 +889,13 @@
     </row>
     <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>544816498</v>
+        <v>544816501</v>
       </c>
       <c r="B16" s="5">
         <v>523301800</v>
       </c>
       <c r="C16" s="7">
-        <v>45414</v>
+        <v>45406</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>6</v>
@@ -912,13 +915,13 @@
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>544816499</v>
+        <v>544816502</v>
       </c>
       <c r="B17" s="5">
         <v>523301800</v>
       </c>
       <c r="C17" s="7">
-        <v>45414</v>
+        <v>45406</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>6</v>
@@ -941,13 +944,13 @@
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>544816500</v>
+        <v>544816504</v>
       </c>
       <c r="B18" s="5">
         <v>523301800</v>
       </c>
       <c r="C18" s="7">
-        <v>45294</v>
+        <v>45406</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>7</v>
@@ -964,13 +967,13 @@
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>544816501</v>
+        <v>544816505</v>
       </c>
       <c r="B19" s="5">
         <v>523301800</v>
       </c>
       <c r="C19" s="7">
-        <v>45293</v>
+        <v>45406</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>5</v>
@@ -987,13 +990,13 @@
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>544816502</v>
+        <v>544816506</v>
       </c>
       <c r="B20" s="5">
         <v>523301800</v>
       </c>
       <c r="C20" s="7">
-        <v>45414</v>
+        <v>45406</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>6</v>
@@ -1019,7 +1022,7 @@
         <v>544816498</v>
       </c>
       <c r="C21" s="7">
-        <v>45293</v>
+        <v>45406</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>5</v>
@@ -1042,7 +1045,7 @@
         <v>544816495</v>
       </c>
       <c r="C22" s="7">
-        <v>45414</v>
+        <v>45406</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>6</v>

--- a/data/messages.xlsx
+++ b/data/messages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A145EE-0283-4D1C-8446-486977BFD243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924CE81D-6685-4992-868A-C84F69BC875F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="25">
   <si>
     <t>attachments</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>טיוטה</t>
+  </si>
+  <si>
+    <t>פניות שירות</t>
   </si>
 </sst>
 </file>
@@ -456,13 +459,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2:I11"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -531,7 +534,7 @@
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>544816491</v>
+        <v>523301800</v>
       </c>
       <c r="B2" s="5">
         <v>523301800</v>
@@ -557,7 +560,7 @@
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>544816492</v>
+        <v>549247616</v>
       </c>
       <c r="B3" s="5">
         <v>523301800</v>
@@ -580,7 +583,7 @@
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>544816493</v>
+        <v>543124517</v>
       </c>
       <c r="B4" s="5">
         <v>523301800</v>
@@ -603,7 +606,7 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>544816494</v>
+        <v>522484652</v>
       </c>
       <c r="B5" s="5">
         <v>523301800</v>
@@ -632,7 +635,7 @@
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>544816495</v>
+        <v>545422064</v>
       </c>
       <c r="B6" s="5">
         <v>523301800</v>
@@ -655,7 +658,7 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>544816496</v>
+        <v>543124511</v>
       </c>
       <c r="B7" s="5">
         <v>523301800</v>
@@ -678,7 +681,7 @@
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>544816497</v>
+        <v>543124512</v>
       </c>
       <c r="B8" s="5">
         <v>523301800</v>
@@ -704,10 +707,10 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>544816498</v>
+        <v>544817648</v>
       </c>
       <c r="B9" s="6">
-        <v>544816497</v>
+        <v>523301800</v>
       </c>
       <c r="C9" s="7">
         <v>45294</v>
@@ -733,7 +736,7 @@
         <v>523301800</v>
       </c>
       <c r="B10" s="6">
-        <v>544816498</v>
+        <v>549247616</v>
       </c>
       <c r="C10" s="7">
         <v>45293</v>
@@ -756,7 +759,7 @@
         <v>523301800</v>
       </c>
       <c r="B11" s="6">
-        <v>544816495</v>
+        <v>543124517</v>
       </c>
       <c r="C11" s="7">
         <v>45414</v>
@@ -771,6 +774,395 @@
         <v>15</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="B12" s="1">
+        <v>522484652</v>
+      </c>
+      <c r="C12" s="7">
+        <v>45294</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="B13" s="1">
+        <v>545422064</v>
+      </c>
+      <c r="C13" s="7">
+        <v>45293</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="B14" s="1">
+        <v>543124511</v>
+      </c>
+      <c r="C14" s="7">
+        <v>45414</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>523301800</v>
+      </c>
+      <c r="B15" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="C15" s="7">
+        <v>45293</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>549247616</v>
+      </c>
+      <c r="B16" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="C16" s="7">
+        <v>45414</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>543124517</v>
+      </c>
+      <c r="B17" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="C17" s="7">
+        <v>45293</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>522484652</v>
+      </c>
+      <c r="B18" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="C18" s="7">
+        <v>45414</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>545422064</v>
+      </c>
+      <c r="B19" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="C19" s="7">
+        <v>45294</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>543124511</v>
+      </c>
+      <c r="B20" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="C20" s="7">
+        <v>45293</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>543124512</v>
+      </c>
+      <c r="B21" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="C21" s="7">
+        <v>45414</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>544817648</v>
+      </c>
+      <c r="B22" s="6">
+        <v>523301800</v>
+      </c>
+      <c r="C22" s="7">
+        <v>45294</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="B23" s="6">
+        <v>549247616</v>
+      </c>
+      <c r="C23" s="7">
+        <v>45293</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="B24" s="6">
+        <v>543124517</v>
+      </c>
+      <c r="C24" s="7">
+        <v>45414</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="B25" s="1">
+        <v>522484652</v>
+      </c>
+      <c r="C25" s="7">
+        <v>45294</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="B26" s="1">
+        <v>545422064</v>
+      </c>
+      <c r="C26" s="7">
+        <v>45293</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="B27" s="1">
+        <v>543124511</v>
+      </c>
+      <c r="C27" s="7">
+        <v>45414</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -783,8 +1175,16 @@
     <hyperlink ref="D3" r:id="rId4" display="eldad8797@gmail.com" xr:uid="{A710D41C-737E-4619-9BB8-10E305133F0D}"/>
     <hyperlink ref="D2" r:id="rId5" display="eldad8797@gmail.com" xr:uid="{F296669E-423F-4CE6-B984-07F791D57A59}"/>
     <hyperlink ref="F5" r:id="rId6" xr:uid="{27534653-348C-496C-9067-ADE2F000FE2C}"/>
+    <hyperlink ref="D13" r:id="rId7" display="eldad8797@gmail.com" xr:uid="{DAAF4C0A-A473-4E03-BEEA-D297AF7C5EAB}"/>
+    <hyperlink ref="D17" r:id="rId8" display="eldad8797@gmail.com" xr:uid="{E8F0F34E-54A6-49A1-A82E-8BDDD0569048}"/>
+    <hyperlink ref="D20" r:id="rId9" display="eldad8797@gmail.com" xr:uid="{A42B4148-82BF-4424-99B4-39903A75EF70}"/>
+    <hyperlink ref="D23" r:id="rId10" display="eldad8797@gmail.com" xr:uid="{B537E57B-2CB6-48DB-8B1B-02219E94D87E}"/>
+    <hyperlink ref="D16" r:id="rId11" display="eldad8797@gmail.com" xr:uid="{DBFEBEA7-1B7A-494D-BA1F-6D636836166B}"/>
+    <hyperlink ref="D15" r:id="rId12" display="eldad8797@gmail.com" xr:uid="{553269E3-C5EA-4104-9147-F5E40C106ED6}"/>
+    <hyperlink ref="F18" r:id="rId13" xr:uid="{FAA87E20-EEEA-4494-AEB7-E01D3D8B5997}"/>
+    <hyperlink ref="D26" r:id="rId14" display="eldad8797@gmail.com" xr:uid="{110018D4-84E0-415A-9D12-9929071E9CA7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>